--- a/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3500580552314053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5043626178318967</v>
+        <v>0.5043626178318966</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2628732278421106</v>
@@ -697,7 +697,7 @@
         <v>0.3753269888719614</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5175476579939375</v>
+        <v>0.5175476579939374</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1956968274459209</v>
+        <v>0.1946160577859551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1857348386621113</v>
+        <v>0.1839050945551028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3099073376619905</v>
+        <v>0.3083726923262922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4624571539689706</v>
+        <v>0.462912241943818</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2292408189480471</v>
+        <v>0.2259909899691518</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2860816341422958</v>
+        <v>0.2870852954844322</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3590884604289211</v>
+        <v>0.3566852551636592</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4991781323908623</v>
+        <v>0.4963508025969535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2211699081946067</v>
+        <v>0.2227544183807546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2454711242675442</v>
+        <v>0.2460338697876864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3448389354942193</v>
+        <v>0.3459439756800444</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.490081472895537</v>
+        <v>0.4916041836413542</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2702027446610861</v>
+        <v>0.2734939334337121</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2554749015754392</v>
+        <v>0.2547575288162524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3947717007676109</v>
+        <v>0.394754004329089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5482037783642491</v>
+        <v>0.5490264222729274</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3084339729260032</v>
+        <v>0.2985788017677033</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.360322235996125</v>
+        <v>0.3632933184065671</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4423897980292416</v>
+        <v>0.4360548273399114</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5632031454916793</v>
+        <v>0.559206890439521</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2764381132684655</v>
+        <v>0.2783718281877951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2975658391500444</v>
+        <v>0.2961282587842632</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4042808459738018</v>
+        <v>0.4043026732125179</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5421373715161277</v>
+        <v>0.54607231211129</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2659744106591085</v>
+        <v>0.2644771960914638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2631163794809029</v>
+        <v>0.2661497351275941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3727991117714161</v>
+        <v>0.3714866855414479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5571854465614916</v>
+        <v>0.5603079127683736</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.296041409429158</v>
+        <v>0.2935174798938962</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3024654358814345</v>
+        <v>0.3030892936705263</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3816885730472248</v>
+        <v>0.3761968829696554</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5908502376050274</v>
+        <v>0.593953998413418</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2873203149371542</v>
+        <v>0.291086695225307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2927243111191433</v>
+        <v>0.292983149634803</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3857130992367979</v>
+        <v>0.3882349502021502</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5845287674011175</v>
+        <v>0.586465979278215</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3366085732429706</v>
+        <v>0.3385472364744588</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3290406163147195</v>
+        <v>0.3344563556728816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4452249450332815</v>
+        <v>0.4444314042940553</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6314482006141301</v>
+        <v>0.6321003108554754</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3598478878134215</v>
+        <v>0.3602061340537764</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3667298572143965</v>
+        <v>0.3689076749001312</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4481462394478939</v>
+        <v>0.4464334527521922</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.641536381644244</v>
+        <v>0.6463007007238873</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3370156534935987</v>
+        <v>0.3383102644643708</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3376158520515158</v>
+        <v>0.3386321041169822</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4328891722045806</v>
+        <v>0.4353992592235255</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6298538466175718</v>
+        <v>0.6298601128960041</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3890001343006809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5404902622774754</v>
+        <v>0.5404902622774755</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2777798565635209</v>
@@ -957,7 +957,7 @@
         <v>0.4274683193496796</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5486058078785663</v>
+        <v>0.5486058078785664</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.281961385681735</v>
@@ -969,7 +969,7 @@
         <v>0.4087342336624183</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5446032066761682</v>
+        <v>0.5446032066761681</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2506415958645784</v>
+        <v>0.2484542751821796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2833038521261504</v>
+        <v>0.2796702647699819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3502198093170205</v>
+        <v>0.3465698365722332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5001337617614277</v>
+        <v>0.498264771360193</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2427458060395701</v>
+        <v>0.2352797866831526</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2842677709883983</v>
+        <v>0.2860691525609342</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.390797043837894</v>
+        <v>0.3889122128734325</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5126289896246594</v>
+        <v>0.5163405443387978</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2566229890672309</v>
+        <v>0.2548852625939616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2956837533477121</v>
+        <v>0.2993108920720841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3793018812324249</v>
+        <v>0.3781314419349765</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5214946645359183</v>
+        <v>0.5175198154758816</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3283563575894181</v>
+        <v>0.3267300303211423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3611182148219377</v>
+        <v>0.3587704431421726</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.434043363934941</v>
+        <v>0.4302759855309778</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5842033438283892</v>
+        <v>0.5799082891778485</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3159572871665533</v>
+        <v>0.3120035435618313</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3592669747191323</v>
+        <v>0.3602601985634579</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4682479103083284</v>
+        <v>0.4694073113485557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5842336557694126</v>
+        <v>0.5793973856306273</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3080564703046995</v>
+        <v>0.3080566951595943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3489383994913476</v>
+        <v>0.3526721907675104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4379541560071534</v>
+        <v>0.4377690088098217</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5726455040980023</v>
+        <v>0.5699413114893697</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.461246057993487</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6146826119282564</v>
+        <v>0.6146826119282562</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3609663621029293</v>
@@ -1093,7 +1093,7 @@
         <v>0.4800521669047429</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6366881931285263</v>
+        <v>0.6366881931285264</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3560947390331872</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3152930572890814</v>
+        <v>0.3192379369785025</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2934678543252258</v>
+        <v>0.2957990173696857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4284579839865582</v>
+        <v>0.4214909224335788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5777375995359413</v>
+        <v>0.5813096699767153</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3254075764682515</v>
+        <v>0.3263711603825187</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3452121127567556</v>
+        <v>0.3439535481018567</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4429468677756798</v>
+        <v>0.4467882495101159</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6107199658765879</v>
+        <v>0.6113398728782423</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3322770485030878</v>
+        <v>0.3305673998146805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3283790852914384</v>
+        <v>0.3317887577280231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4473527308997587</v>
+        <v>0.4465910693934537</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6037758991116082</v>
+        <v>0.604944233615581</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3868067428949715</v>
+        <v>0.3888724008408863</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3628149658780446</v>
+        <v>0.3634614099123127</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4977034451362811</v>
+        <v>0.4965650092728222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6452176943014043</v>
+        <v>0.6457414758682376</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3934653051089342</v>
+        <v>0.3961539744322931</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4085065138044899</v>
+        <v>0.411583729398827</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5136115658000108</v>
+        <v>0.5179864650091336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6628606240947538</v>
+        <v>0.6627122662065533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3811467705845981</v>
+        <v>0.378974677255571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3775220379336288</v>
+        <v>0.3763757772100341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4983852466338018</v>
+        <v>0.4977831452811368</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.645944450457033</v>
+        <v>0.6471889080890412</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4077582905099349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3138913274493892</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93511</v>
+        <v>92995</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112546</v>
+        <v>111437</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>162699</v>
+        <v>161894</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>305005</v>
+        <v>305305</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>123355</v>
+        <v>121607</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>181891</v>
+        <v>182529</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>195474</v>
+        <v>194166</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>352494</v>
+        <v>350498</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>224696</v>
+        <v>226305</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>304814</v>
+        <v>305513</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>368756</v>
+        <v>369937</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>669294</v>
+        <v>671374</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129113</v>
+        <v>130686</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>154805</v>
+        <v>154371</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>207252</v>
+        <v>207243</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>361557</v>
+        <v>362100</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>165970</v>
+        <v>160666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>229093</v>
+        <v>230982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>240821</v>
+        <v>237372</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>397705</v>
+        <v>394883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>280845</v>
+        <v>282809</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>369503</v>
+        <v>367718</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>432320</v>
+        <v>432343</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>740386</v>
+        <v>745760</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>192068</v>
+        <v>190986</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>228121</v>
+        <v>230751</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>304333</v>
+        <v>303262</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>566731</v>
+        <v>569907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>238084</v>
+        <v>236054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>271854</v>
+        <v>272415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>330685</v>
+        <v>325927</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>619083</v>
+        <v>622335</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>438553</v>
+        <v>444301</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>516890</v>
+        <v>517347</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>649047</v>
+        <v>653290</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1207002</v>
+        <v>1211002</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>243074</v>
+        <v>244474</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>285278</v>
+        <v>289973</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>363458</v>
+        <v>362810</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>642266</v>
+        <v>642929</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>289399</v>
+        <v>289687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>329614</v>
+        <v>331572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>388262</v>
+        <v>386778</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>672192</v>
+        <v>677184</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>514405</v>
+        <v>516381</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>596159</v>
+        <v>597954</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>728431</v>
+        <v>732655</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1300595</v>
+        <v>1300608</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>136622</v>
+        <v>135430</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>180191</v>
+        <v>177880</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>192747</v>
+        <v>190738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>387108</v>
+        <v>385661</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>141911</v>
+        <v>137547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>192591</v>
+        <v>193812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>226560</v>
+        <v>225467</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>407717</v>
+        <v>410669</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>289906</v>
+        <v>287943</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>388390</v>
+        <v>393154</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>428648</v>
+        <v>427326</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>818409</v>
+        <v>812171</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>178983</v>
+        <v>178097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>229683</v>
+        <v>228190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>238880</v>
+        <v>236807</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>452178</v>
+        <v>448854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>184711</v>
+        <v>182400</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>243403</v>
+        <v>244076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>271461</v>
+        <v>272133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>464667</v>
+        <v>460821</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>348011</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>458342</v>
+        <v>463246</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>494931</v>
+        <v>494722</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>898683</v>
+        <v>894439</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>224234</v>
+        <v>227039</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>236440</v>
+        <v>238318</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>331042</v>
+        <v>325659</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>547672</v>
+        <v>551058</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>264578</v>
+        <v>265362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>322152</v>
+        <v>320978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>388394</v>
+        <v>391762</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>657239</v>
+        <v>657906</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>506476</v>
+        <v>503870</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>571011</v>
+        <v>576940</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>737898</v>
+        <v>736641</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1222120</v>
+        <v>1224485</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>275093</v>
+        <v>276563</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292311</v>
+        <v>292832</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>384543</v>
+        <v>383664</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>611640</v>
+        <v>612136</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>319914</v>
+        <v>322100</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>381219</v>
+        <v>384090</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>450356</v>
+        <v>454192</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>713351</v>
+        <v>713191</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>580966</v>
+        <v>577656</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>656464</v>
+        <v>654471</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>822075</v>
+        <v>821081</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1307475</v>
+        <v>1309994</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
     </row>
     <row r="24">
